--- a/script/DeepSTL_convert/ardupilot_docs/ap_throw-mode/result.xlsx
+++ b/script/DeepSTL_convert/ardupilot_docs/ap_throw-mode/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="97">
   <si>
     <t>index</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>T represents the throw action, and W represents writing THRO messages to the dataflash log. This formula globally ensures that during the throw, THRO messages are always written to the log.</t>
-  </si>
-  <si>
-    <t>{'section-id': 0, 'sentence-id': 3, 'sentence': 'Sentence not found.', 'tl': 'always ( not ( Sentence == found ) )'}</t>
   </si>
 </sst>
 </file>
@@ -336,7 +333,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,13 +344,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -821,148 +811,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,7 +1313,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2214,7 +2204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" ht="51" spans="1:12">
+    <row r="24" ht="17" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2233,19 +2223,11 @@
       <c r="F24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:12">
@@ -2315,7 +2297,7 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
